--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cxcl2-Cxcr1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cxcl2-Cxcr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,60 +534,60 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.360576802617688</v>
+        <v>1.098395333333333</v>
       </c>
       <c r="H2">
-        <v>0.360576802617688</v>
+        <v>3.295186</v>
       </c>
       <c r="I2">
-        <v>0.0001291085528400137</v>
+        <v>0.0003662491773237947</v>
       </c>
       <c r="J2">
-        <v>0.0001291085528400137</v>
+        <v>0.0003662491773237948</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>8.849153618004211</v>
+        <v>0.01218566666666667</v>
       </c>
       <c r="N2">
-        <v>8.849153618004211</v>
+        <v>0.036557</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.001323065176875323</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.001323065176875324</v>
       </c>
       <c r="Q2">
-        <v>3.190799517452704</v>
+        <v>0.01338467940022222</v>
       </c>
       <c r="R2">
-        <v>3.190799517452704</v>
+        <v>0.120462114602</v>
       </c>
       <c r="S2">
-        <v>0.0001291085528400137</v>
+        <v>4.845715325763482E-07</v>
       </c>
       <c r="T2">
-        <v>0.0001291085528400137</v>
+        <v>4.845715325763483E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.0327715276774</v>
+        <v>1.098395333333333</v>
       </c>
       <c r="H3">
-        <v>29.0327715276774</v>
+        <v>3.295186</v>
       </c>
       <c r="I3">
-        <v>0.01039550822365994</v>
+        <v>0.0003662491773237947</v>
       </c>
       <c r="J3">
-        <v>0.01039550822365994</v>
+        <v>0.0003662491773237948</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>8.849153618004211</v>
+        <v>0.2032383333333333</v>
       </c>
       <c r="N3">
-        <v>8.849153618004211</v>
+        <v>0.609715</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.02206670909315693</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.02206670909315693</v>
       </c>
       <c r="Q3">
-        <v>256.9154552048361</v>
+        <v>0.2232360368877777</v>
       </c>
       <c r="R3">
-        <v>256.9154552048361</v>
+        <v>2.00912433199</v>
       </c>
       <c r="S3">
-        <v>0.01039550822365994</v>
+        <v>8.081914051612226E-06</v>
       </c>
       <c r="T3">
-        <v>0.01039550822365994</v>
+        <v>8.081914051612228E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>128.94590976638</v>
+        <v>1.098395333333333</v>
       </c>
       <c r="H4">
-        <v>128.94590976638</v>
+        <v>3.295186</v>
       </c>
       <c r="I4">
-        <v>0.0461705236823786</v>
+        <v>0.0003662491773237947</v>
       </c>
       <c r="J4">
-        <v>0.0461705236823786</v>
+        <v>0.0003662491773237948</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>8.849153618004211</v>
+        <v>0.05279966666666667</v>
       </c>
       <c r="N4">
-        <v>8.849153618004211</v>
+        <v>0.158399</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.005732751619440172</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.005732751619440174</v>
       </c>
       <c r="Q4">
-        <v>1141.062163936006</v>
+        <v>0.05799490746822222</v>
       </c>
       <c r="R4">
-        <v>1141.062163936006</v>
+        <v>0.521954167214</v>
       </c>
       <c r="S4">
-        <v>0.0461705236823786</v>
+        <v>2.099615564421615E-06</v>
       </c>
       <c r="T4">
-        <v>0.0461705236823786</v>
+        <v>2.099615564421616E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,57 +723,57 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>114.813450399635</v>
+        <v>1.098395333333333</v>
       </c>
       <c r="H5">
-        <v>114.813450399635</v>
+        <v>3.295186</v>
       </c>
       <c r="I5">
-        <v>0.04111023870657179</v>
+        <v>0.0003662491773237947</v>
       </c>
       <c r="J5">
-        <v>0.04111023870657179</v>
+        <v>0.0003662491773237948</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.849153618004211</v>
+        <v>8.941955</v>
       </c>
       <c r="N5">
-        <v>8.849153618004211</v>
+        <v>26.825865</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.9708774741105275</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.9708774741105276</v>
       </c>
       <c r="Q5">
-        <v>1016.001859999477</v>
+        <v>9.821801642876665</v>
       </c>
       <c r="R5">
-        <v>1016.001859999477</v>
+        <v>88.39621478589</v>
       </c>
       <c r="S5">
-        <v>0.04111023870657179</v>
+        <v>0.0003555830761751845</v>
       </c>
       <c r="T5">
-        <v>0.04111023870657179</v>
+        <v>0.0003555830761751846</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,117 +782,1233 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2518.64614414776</v>
+        <v>29.98612533333333</v>
       </c>
       <c r="H6">
-        <v>2518.64614414776</v>
+        <v>89.95837599999999</v>
       </c>
       <c r="I6">
-        <v>0.9018293923133434</v>
+        <v>0.009998580111527726</v>
       </c>
       <c r="J6">
-        <v>0.9018293923133434</v>
+        <v>0.009998580111527726</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>8.849153618004211</v>
+        <v>0.01218566666666667</v>
       </c>
       <c r="N6">
-        <v>8.849153618004211</v>
+        <v>0.036557</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.001323065176875323</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.001323065176875324</v>
       </c>
       <c r="Q6">
-        <v>22287.88663895751</v>
+        <v>0.3654009279368888</v>
       </c>
       <c r="R6">
-        <v>22287.88663895751</v>
+        <v>3.288608351431999</v>
       </c>
       <c r="S6">
-        <v>0.9018293923133434</v>
+        <v>1.322877316376052E-05</v>
       </c>
       <c r="T6">
-        <v>0.9018293923133434</v>
+        <v>1.322877316376052E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>29.98612533333333</v>
+      </c>
+      <c r="H7">
+        <v>89.95837599999999</v>
+      </c>
+      <c r="I7">
+        <v>0.009998580111527726</v>
+      </c>
+      <c r="J7">
+        <v>0.009998580111527726</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.2032383333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.609715</v>
+      </c>
+      <c r="O7">
+        <v>0.02206670909315693</v>
+      </c>
+      <c r="P7">
+        <v>0.02206670909315693</v>
+      </c>
+      <c r="Q7">
+        <v>6.09433013587111</v>
+      </c>
+      <c r="R7">
+        <v>54.84897122283999</v>
+      </c>
+      <c r="S7">
+        <v>0.0002206357586657069</v>
+      </c>
+      <c r="T7">
+        <v>0.0002206357586657069</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>29.98612533333333</v>
+      </c>
+      <c r="H8">
+        <v>89.95837599999999</v>
+      </c>
+      <c r="I8">
+        <v>0.009998580111527726</v>
+      </c>
+      <c r="J8">
+        <v>0.009998580111527726</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.05279966666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.158399</v>
+      </c>
+      <c r="O8">
+        <v>0.005732751619440172</v>
+      </c>
+      <c r="P8">
+        <v>0.005732751619440174</v>
+      </c>
+      <c r="Q8">
+        <v>1.583257422224889</v>
+      </c>
+      <c r="R8">
+        <v>14.249316800024</v>
+      </c>
+      <c r="S8">
+        <v>5.731937632646287E-05</v>
+      </c>
+      <c r="T8">
+        <v>5.731937632646289E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>29.98612533333333</v>
+      </c>
+      <c r="H9">
+        <v>89.95837599999999</v>
+      </c>
+      <c r="I9">
+        <v>0.009998580111527726</v>
+      </c>
+      <c r="J9">
+        <v>0.009998580111527726</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>8.941955</v>
+      </c>
+      <c r="N9">
+        <v>26.825865</v>
+      </c>
+      <c r="O9">
+        <v>0.9708774741105275</v>
+      </c>
+      <c r="P9">
+        <v>0.9708774741105276</v>
+      </c>
+      <c r="Q9">
+        <v>268.1345833550266</v>
+      </c>
+      <c r="R9">
+        <v>2413.21125019524</v>
+      </c>
+      <c r="S9">
+        <v>0.009707396203371795</v>
+      </c>
+      <c r="T9">
+        <v>0.009707396203371797</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>199.9643056666667</v>
+      </c>
+      <c r="H10">
+        <v>599.892917</v>
+      </c>
+      <c r="I10">
+        <v>0.06667614129630968</v>
+      </c>
+      <c r="J10">
+        <v>0.06667614129630969</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.01218566666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.036557</v>
+      </c>
+      <c r="O10">
+        <v>0.001323065176875323</v>
+      </c>
+      <c r="P10">
+        <v>0.001323065176875324</v>
+      </c>
+      <c r="Q10">
+        <v>2.436698374085444</v>
+      </c>
+      <c r="R10">
+        <v>21.930285366769</v>
+      </c>
+      <c r="S10">
+        <v>8.821688067756603E-05</v>
+      </c>
+      <c r="T10">
+        <v>8.821688067756605E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>199.9643056666667</v>
+      </c>
+      <c r="H11">
+        <v>599.892917</v>
+      </c>
+      <c r="I11">
+        <v>0.06667614129630968</v>
+      </c>
+      <c r="J11">
+        <v>0.06667614129630969</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.2032383333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.609715</v>
+      </c>
+      <c r="O11">
+        <v>0.02206670909315693</v>
+      </c>
+      <c r="P11">
+        <v>0.02206670909315693</v>
+      </c>
+      <c r="Q11">
+        <v>40.64041220985055</v>
+      </c>
+      <c r="R11">
+        <v>365.763709888655</v>
+      </c>
+      <c r="S11">
+        <v>0.001471323013439893</v>
+      </c>
+      <c r="T11">
+        <v>0.001471323013439894</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>199.9643056666667</v>
+      </c>
+      <c r="H12">
+        <v>599.892917</v>
+      </c>
+      <c r="I12">
+        <v>0.06667614129630968</v>
+      </c>
+      <c r="J12">
+        <v>0.06667614129630969</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.05279966666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.158399</v>
+      </c>
+      <c r="O12">
+        <v>0.005732751619440172</v>
+      </c>
+      <c r="P12">
+        <v>0.005732751619440174</v>
+      </c>
+      <c r="Q12">
+        <v>10.55804868443144</v>
+      </c>
+      <c r="R12">
+        <v>95.02243815988301</v>
+      </c>
+      <c r="S12">
+        <v>0.000382237756994441</v>
+      </c>
+      <c r="T12">
+        <v>0.0003822377569944413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>199.9643056666667</v>
+      </c>
+      <c r="H13">
+        <v>599.892917</v>
+      </c>
+      <c r="I13">
+        <v>0.06667614129630968</v>
+      </c>
+      <c r="J13">
+        <v>0.06667614129630969</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.941955</v>
+      </c>
+      <c r="N13">
+        <v>26.825865</v>
+      </c>
+      <c r="O13">
+        <v>0.9708774741105275</v>
+      </c>
+      <c r="P13">
+        <v>0.9708774741105276</v>
+      </c>
+      <c r="Q13">
+        <v>1788.071822877578</v>
+      </c>
+      <c r="R13">
+        <v>16092.64640589821</v>
+      </c>
+      <c r="S13">
+        <v>0.06473436364519777</v>
+      </c>
+      <c r="T13">
+        <v>0.0647343636451978</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>116.787954</v>
+      </c>
+      <c r="H14">
+        <v>350.363862</v>
+      </c>
+      <c r="I14">
+        <v>0.03894180062111443</v>
+      </c>
+      <c r="J14">
+        <v>0.03894180062111444</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.01218566666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.036557</v>
+      </c>
+      <c r="O14">
+        <v>0.001323065176875323</v>
+      </c>
+      <c r="P14">
+        <v>0.001323065176875324</v>
+      </c>
+      <c r="Q14">
+        <v>1.423139078126</v>
+      </c>
+      <c r="R14">
+        <v>12.808251703134</v>
+      </c>
+      <c r="S14">
+        <v>5.152254032661834E-05</v>
+      </c>
+      <c r="T14">
+        <v>5.152254032661836E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>116.787954</v>
+      </c>
+      <c r="H15">
+        <v>350.363862</v>
+      </c>
+      <c r="I15">
+        <v>0.03894180062111443</v>
+      </c>
+      <c r="J15">
+        <v>0.03894180062111444</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.2032383333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.609715</v>
+      </c>
+      <c r="O15">
+        <v>0.02206670909315693</v>
+      </c>
+      <c r="P15">
+        <v>0.02206670909315693</v>
+      </c>
+      <c r="Q15">
+        <v>23.73578912437</v>
+      </c>
+      <c r="R15">
+        <v>213.62210211933</v>
+      </c>
+      <c r="S15">
+        <v>0.00085931738586985</v>
+      </c>
+      <c r="T15">
+        <v>0.0008593173858698502</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>116.787954</v>
+      </c>
+      <c r="H16">
+        <v>350.363862</v>
+      </c>
+      <c r="I16">
+        <v>0.03894180062111443</v>
+      </c>
+      <c r="J16">
+        <v>0.03894180062111444</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.05279966666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.158399</v>
+      </c>
+      <c r="O16">
+        <v>0.005732751619440172</v>
+      </c>
+      <c r="P16">
+        <v>0.005732751619440174</v>
+      </c>
+      <c r="Q16">
+        <v>6.166365041882001</v>
+      </c>
+      <c r="R16">
+        <v>55.49728537693801</v>
+      </c>
+      <c r="S16">
+        <v>0.0002232436705746101</v>
+      </c>
+      <c r="T16">
+        <v>0.0002232436705746102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>116.787954</v>
+      </c>
+      <c r="H17">
+        <v>350.363862</v>
+      </c>
+      <c r="I17">
+        <v>0.03894180062111443</v>
+      </c>
+      <c r="J17">
+        <v>0.03894180062111444</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>8.941955</v>
+      </c>
+      <c r="N17">
+        <v>26.825865</v>
+      </c>
+      <c r="O17">
+        <v>0.9708774741105275</v>
+      </c>
+      <c r="P17">
+        <v>0.9708774741105276</v>
+      </c>
+      <c r="Q17">
+        <v>1044.31262921007</v>
+      </c>
+      <c r="R17">
+        <v>9398.81366289063</v>
+      </c>
+      <c r="S17">
+        <v>0.03780771702434334</v>
+      </c>
+      <c r="T17">
+        <v>0.03780771702434336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2650.128784</v>
+      </c>
+      <c r="H18">
+        <v>7950.386352</v>
+      </c>
+      <c r="I18">
+        <v>0.8836595144633188</v>
+      </c>
+      <c r="J18">
+        <v>0.8836595144633189</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.01218566666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.036557</v>
+      </c>
+      <c r="O18">
+        <v>0.001323065176875323</v>
+      </c>
+      <c r="P18">
+        <v>0.001323065176875324</v>
+      </c>
+      <c r="Q18">
+        <v>32.29358598556266</v>
+      </c>
+      <c r="R18">
+        <v>290.642273870064</v>
+      </c>
+      <c r="S18">
+        <v>0.001169139131800973</v>
+      </c>
+      <c r="T18">
+        <v>0.001169139131800974</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2650.128784</v>
+      </c>
+      <c r="H19">
+        <v>7950.386352</v>
+      </c>
+      <c r="I19">
+        <v>0.8836595144633188</v>
+      </c>
+      <c r="J19">
+        <v>0.8836595144633189</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.2032383333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.609715</v>
+      </c>
+      <c r="O19">
+        <v>0.02206670909315693</v>
+      </c>
+      <c r="P19">
+        <v>0.02206670909315693</v>
+      </c>
+      <c r="Q19">
+        <v>538.6077571788533</v>
+      </c>
+      <c r="R19">
+        <v>4847.46981460968</v>
+      </c>
+      <c r="S19">
+        <v>0.01949945744306236</v>
+      </c>
+      <c r="T19">
+        <v>0.01949945744306236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2650.128784</v>
+      </c>
+      <c r="H20">
+        <v>7950.386352</v>
+      </c>
+      <c r="I20">
+        <v>0.8836595144633188</v>
+      </c>
+      <c r="J20">
+        <v>0.8836595144633189</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.05279966666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.158399</v>
+      </c>
+      <c r="O20">
+        <v>0.005732751619440172</v>
+      </c>
+      <c r="P20">
+        <v>0.005732751619440174</v>
+      </c>
+      <c r="Q20">
+        <v>139.9259164189387</v>
+      </c>
+      <c r="R20">
+        <v>1259.333247770448</v>
+      </c>
+      <c r="S20">
+        <v>0.005065800512573307</v>
+      </c>
+      <c r="T20">
+        <v>0.005065800512573309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2650.128784</v>
+      </c>
+      <c r="H21">
+        <v>7950.386352</v>
+      </c>
+      <c r="I21">
+        <v>0.8836595144633188</v>
+      </c>
+      <c r="J21">
+        <v>0.8836595144633189</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>8.941955</v>
+      </c>
+      <c r="N21">
+        <v>26.825865</v>
+      </c>
+      <c r="O21">
+        <v>0.9708774741105275</v>
+      </c>
+      <c r="P21">
+        <v>0.9708774741105276</v>
+      </c>
+      <c r="Q21">
+        <v>23697.33233073272</v>
+      </c>
+      <c r="R21">
+        <v>213275.9909765945</v>
+      </c>
+      <c r="S21">
+        <v>0.8579251173758821</v>
+      </c>
+      <c r="T21">
+        <v>0.8579251173758823</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.072799</v>
+      </c>
+      <c r="H22">
+        <v>3.218397</v>
+      </c>
+      <c r="I22">
+        <v>0.0003577143304054366</v>
+      </c>
+      <c r="J22">
+        <v>0.0003577143304054367</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.01218566666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.036557</v>
+      </c>
+      <c r="O22">
+        <v>0.001323065176875323</v>
+      </c>
+      <c r="P22">
+        <v>0.001323065176875324</v>
+      </c>
+      <c r="Q22">
+        <v>0.01307277101433333</v>
+      </c>
+      <c r="R22">
+        <v>0.117654939129</v>
+      </c>
+      <c r="S22">
+        <v>4.732793738287069E-07</v>
+      </c>
+      <c r="T22">
+        <v>4.73279373828707E-07</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.072799</v>
+      </c>
+      <c r="H23">
+        <v>3.218397</v>
+      </c>
+      <c r="I23">
+        <v>0.0003577143304054366</v>
+      </c>
+      <c r="J23">
+        <v>0.0003577143304054367</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.2032383333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.609715</v>
+      </c>
+      <c r="O23">
+        <v>0.02206670909315693</v>
+      </c>
+      <c r="P23">
+        <v>0.02206670909315693</v>
+      </c>
+      <c r="Q23">
+        <v>0.2180338807616666</v>
+      </c>
+      <c r="R23">
+        <v>1.962304926855</v>
+      </c>
+      <c r="S23">
+        <v>7.893578067510191E-06</v>
+      </c>
+      <c r="T23">
+        <v>7.893578067510193E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.072799</v>
+      </c>
+      <c r="H24">
+        <v>3.218397</v>
+      </c>
+      <c r="I24">
+        <v>0.0003577143304054366</v>
+      </c>
+      <c r="J24">
+        <v>0.0003577143304054367</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.05279966666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.158399</v>
+      </c>
+      <c r="O24">
+        <v>0.005732751619440172</v>
+      </c>
+      <c r="P24">
+        <v>0.005732751619440174</v>
+      </c>
+      <c r="Q24">
+        <v>0.05664342960033333</v>
+      </c>
+      <c r="R24">
+        <v>0.509790866403</v>
+      </c>
+      <c r="S24">
+        <v>2.050687406928723E-06</v>
+      </c>
+      <c r="T24">
+        <v>2.050687406928725E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.02001710579566</v>
-      </c>
-      <c r="H7">
-        <v>1.02001710579566</v>
-      </c>
-      <c r="I7">
-        <v>0.0003652285212062521</v>
-      </c>
-      <c r="J7">
-        <v>0.0003652285212062521</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>8.849153618004211</v>
-      </c>
-      <c r="N7">
-        <v>8.849153618004211</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>9.026288062177848</v>
-      </c>
-      <c r="R7">
-        <v>9.026288062177848</v>
-      </c>
-      <c r="S7">
-        <v>0.0003652285212062521</v>
-      </c>
-      <c r="T7">
-        <v>0.0003652285212062521</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.072799</v>
+      </c>
+      <c r="H25">
+        <v>3.218397</v>
+      </c>
+      <c r="I25">
+        <v>0.0003577143304054366</v>
+      </c>
+      <c r="J25">
+        <v>0.0003577143304054367</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>8.941955</v>
+      </c>
+      <c r="N25">
+        <v>26.825865</v>
+      </c>
+      <c r="O25">
+        <v>0.9708774741105275</v>
+      </c>
+      <c r="P25">
+        <v>0.9708774741105276</v>
+      </c>
+      <c r="Q25">
+        <v>9.592920382044998</v>
+      </c>
+      <c r="R25">
+        <v>86.33628343840499</v>
+      </c>
+      <c r="S25">
+        <v>0.0003472967855571689</v>
+      </c>
+      <c r="T25">
+        <v>0.000347296785557169</v>
       </c>
     </row>
   </sheetData>
